--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_6.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_20_6.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_24</t>
+          <t>model_20_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999941647341003</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990173233522381</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999861208992377</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999700954179693</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999848698109065</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G2" t="n">
-        <v>5.446964578799178e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009172855161661146</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I2" t="n">
-        <v>2.180771903805684e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>1.208256129292932e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>1.694514016549308e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001561181356026365</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002333873299645715</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000010772798584</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00243323111779539</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P2" t="n">
-        <v>98.24090412493271</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q2" t="n">
-        <v>143.3393096450561</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_23</t>
+          <t>model_20_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999941076181043</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990168164099406</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999859908690857</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999698589149285</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999984735936141</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G3" t="n">
-        <v>5.500279854032052e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009177587245487532</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I3" t="n">
-        <v>2.201203061914515e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>1.217811730118148e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>1.709507396016332e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001586022485461088</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002345267544232865</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N3" t="n">
-        <v>1.0000108782435</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002445110438963952</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P3" t="n">
-        <v>98.22142316893809</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q3" t="n">
-        <v>143.3198286890615</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_22</t>
+          <t>model_20_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999940408678076</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990162386878233</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999858439354099</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999695808850324</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999845827131648</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G4" t="n">
-        <v>5.562588325897943e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009182980027860861</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I4" t="n">
-        <v>2.224290208350871e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>1.229045170056676e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>1.726667689203774e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001613674063586187</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M4" t="n">
-        <v>0.002358514007992732</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000011001474817</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O4" t="n">
-        <v>0.002458920832110038</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P4" t="n">
-        <v>98.19889406356974</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q4" t="n">
-        <v>143.2972995836932</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_21</t>
+          <t>model_20_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999939676071823</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9990155960503053</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999856878528292</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999692603824836</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999844154111193</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G5" t="n">
-        <v>5.630973903842781e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009188978767006462</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I5" t="n">
-        <v>2.248814888489547e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>1.241994662836413e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>1.74540477566298e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001643736068370034</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00237296732043296</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000011136725202</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002473989451983327</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P5" t="n">
-        <v>98.17445629215207</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q5" t="n">
-        <v>143.2728618122755</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_20</t>
+          <t>model_20_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999938787785931</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9990148470956206</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999854987885379</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999968865889471</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999842116264497</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G6" t="n">
-        <v>5.713891492697387e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009195969930234267</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I6" t="n">
-        <v>2.2785218631209e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>1.257933645027506e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>1.768227754074203e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001677456987911403</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M6" t="n">
-        <v>0.002390374759885443</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000011300716444</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002492137962171669</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P6" t="n">
-        <v>98.14522048812688</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q6" t="n">
-        <v>143.2436260082503</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_19</t>
+          <t>model_20_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999937766019943</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9990140124690731</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999852951531432</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999683810357498</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999839813210333</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G7" t="n">
-        <v>5.809268862766904e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000920376080269704</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I7" t="n">
-        <v>2.310518341502346e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>1.277523535293823e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>1.794020938398085e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001714261468787059</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M7" t="n">
-        <v>0.002410242490449229</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000011489350164</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002512851503157428</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P7" t="n">
-        <v>98.11211167239043</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q7" t="n">
-        <v>143.2105171925138</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_18</t>
+          <t>model_20_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999936592702616</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990130906809289</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999850575272885</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999678440986616</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999837177769917</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G8" t="n">
-        <v>5.918792884905187e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009212365290404887</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I8" t="n">
-        <v>2.347855615474821e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>1.299217786936528e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>1.823536701205674e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001754389543856034</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M8" t="n">
-        <v>0.002432856938848889</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000011705962594</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002536428695443823</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P8" t="n">
-        <v>98.0747560688731</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q8" t="n">
-        <v>143.1731615889965</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_17</t>
+          <t>model_20_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999993520048424</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9990119737018215</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999847875812536</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999671793429573</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999834085048106</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G9" t="n">
-        <v>6.048750359151083e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009222791800075282</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I9" t="n">
-        <v>2.390271240120335e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>1.326076385170938e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>1.858173812645636e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000179996730001917</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M9" t="n">
-        <v>0.002459420736505058</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000011962987525</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002564123368960857</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P9" t="n">
-        <v>98.03131771892561</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q9" t="n">
-        <v>143.129723239049</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_16</t>
+          <t>model_20_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999933620315153</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.999010732110872</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999844947671758</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999663921357139</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999830611031362</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G10" t="n">
-        <v>6.196252207251132e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0009234381506594014</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I10" t="n">
-        <v>2.436280036003817e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>1.357882480167404e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>1.89708125808561e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0001851214937116258</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00248922723093958</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000012254711049</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002595198787571407</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P10" t="n">
-        <v>97.98313186277598</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q10" t="n">
-        <v>143.0815373828994</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_15</t>
+          <t>model_20_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.999993174159758</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990093303890017</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999841482186196</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999654362124738</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999826455744182</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G11" t="n">
-        <v>6.371622246224705e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0009247465964967989</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I11" t="n">
-        <v>2.490731932248451e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>1.396505327755337e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>1.943618630001894e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001908136031718837</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M11" t="n">
-        <v>0.002524207251044317</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000012601551216</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O11" t="n">
-        <v>0.002631667979550625</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P11" t="n">
-        <v>97.92731290213206</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q11" t="n">
-        <v>143.0257184222555</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_14</t>
+          <t>model_20_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999929552589792</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990077301342283</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999837517100622</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E12" t="n">
-        <v>0.999964326601229</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999821672771561</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G12" t="n">
-        <v>6.575956514519484e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0009262403640847291</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I12" t="n">
-        <v>2.553033859183345e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>1.441337741272257e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>1.997185800227801e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001970527001477204</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M12" t="n">
-        <v>0.002564362789177749</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000013005675731</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002673533022075821</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P12" t="n">
-        <v>97.86418102597563</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q12" t="n">
-        <v>142.962586546099</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_13</t>
+          <t>model_20_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999927004587129</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C13" t="n">
-        <v>0.999005934291884</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999833117245668</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999629726203032</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999816144018794</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G13" t="n">
-        <v>6.813801378685688e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0009279167040847752</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I13" t="n">
-        <v>2.622167156994045e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>1.496043597082415e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>2.05910537703823e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002038633051748465</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002610325914265437</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000013476076222</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002721452892555278</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P13" t="n">
-        <v>97.793120776309</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.8915262964324</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999924008230887</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C14" t="n">
-        <v>0.99900381882324</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999828008707431</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999613583537216</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999809648630138</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G14" t="n">
-        <v>7.0934980813653e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0009298914012055752</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I14" t="n">
-        <v>2.702435733802144e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.561265959646568e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.131850846724356e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002112664593586837</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002663362176153536</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000014029249682</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002776747017912151</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P14" t="n">
-        <v>97.71266391334453</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q14" t="n">
-        <v>142.811069433468</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_11</t>
+          <t>model_20_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999992055378884</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990013452917245</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999822514675784</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999593869924479</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9999802238693316</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G15" t="n">
-        <v>7.415955083224206e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0009322003342998289</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I15" t="n">
-        <v>2.788761426378949e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>1.640916273419088e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.214838849899019e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.000219374978023441</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002723225125329194</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N15" t="n">
-        <v>1.00001466699283</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002839158456767605</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P15" t="n">
-        <v>97.62375357291596</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q15" t="n">
-        <v>142.7221590930394</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_10</t>
+          <t>model_20_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999916462276461</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9989985779194344</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999815855753221</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999571184206232</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999793475492557</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G16" t="n">
-        <v>7.797879804071078e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0009347835548590587</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I16" t="n">
-        <v>2.893390620163131e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>1.732574996793755e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.312982808478443e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002281764831173324</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002792468406996054</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000015422348961</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O16" t="n">
-        <v>0.002911349568288376</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P16" t="n">
-        <v>97.52331736241874</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.6217228825421</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_9</t>
+          <t>model_20_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999991147989411</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9989952553304856</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999807900756428</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999542956807602</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9999782797778232</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G17" t="n">
-        <v>8.262963326494053e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0009378850457979085</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I17" t="n">
-        <v>3.018384550249607e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>1.846624166160627e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.432568469159258e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002379270552733185</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002874537062988413</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000016342173395</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O17" t="n">
-        <v>0.002996912056871868</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P17" t="n">
-        <v>97.40745455706974</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q17" t="n">
-        <v>142.5058600771932</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_8</t>
+          <t>model_20_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999905780641944</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9989914933149706</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999979902240692</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999510307794375</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999770686220418</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G18" t="n">
-        <v>8.794963499257228e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009413967221477737</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I18" t="n">
-        <v>3.157886780906815e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>1.978538299943105e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.56821254042496e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002483581666698332</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M18" t="n">
-        <v>0.00296563037131353</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000017394343026</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00309188339592153</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P18" t="n">
-        <v>97.28266265990618</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.3810681800296</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_7</t>
+          <t>model_20_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999898931845425</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9989872184367642</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999788273970848</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999470998741641</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999756055757671</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G19" t="n">
-        <v>9.434268591738247e-06</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009453871333079797</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3267729918831e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>2.137361465750541e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.73206722881682e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002595528197756361</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M19" t="n">
-        <v>0.003071525450283336</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000018658736229</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003202286647636112</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P19" t="n">
-        <v>97.14232380579422</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.2407293259176</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_6</t>
+          <t>model_20_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999890978267136</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9989822681125533</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999775928250967</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999425669350789</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999739218871219</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G20" t="n">
-        <v>1.017670021274714e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000950008043664675</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I20" t="n">
-        <v>3.520756734127754e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>2.320509032495067e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.92063288331141e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002716159077952964</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M20" t="n">
-        <v>0.003190094075845905</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000020127089144</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O20" t="n">
-        <v>0.003325902985059772</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P20" t="n">
-        <v>96.99081948703778</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q20" t="n">
-        <v>142.0892250071612</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_5</t>
+          <t>model_20_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999880970903262</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9989764242455883</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999976000244619</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999369163327175</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999717846197179</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G21" t="n">
-        <v>1.111084370311334e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00095546303696045</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I21" t="n">
-        <v>3.770993029681093e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>2.548814344713863e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>3.159997345360743e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002848900344610484</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M21" t="n">
-        <v>0.003333293221892329</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000021974602475</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003475198415216489</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P21" t="n">
-        <v>96.81517803264362</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q21" t="n">
-        <v>141.9135835527671</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_4</t>
+          <t>model_20_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999869045774299</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9989696685842556</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999740993279937</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999301809904435</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9999692370654808</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G22" t="n">
-        <v>1.222400214655536e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009617691502752718</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I22" t="n">
-        <v>4.069677046659293e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>2.820947176302816e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.445312111481054e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002986744486835293</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M22" t="n">
-        <v>0.003496284048322641</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000024176164745</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003645128098565464</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P22" t="n">
-        <v>96.62421829987682</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q22" t="n">
-        <v>141.7226238200003</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_3</t>
+          <t>model_20_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999854454002389</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9989621110451058</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999716553682796</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999223096147367</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999661028199482</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G23" t="n">
-        <v>1.358608000388458e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009688237813340121</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I23" t="n">
-        <v>4.45368742095676e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>3.138979975889125e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>3.796333698422942e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003135255862756806</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003685930005288297</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000026870030328</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003842847676540398</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P23" t="n">
-        <v>96.41292963702406</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.5113351571475</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_2</t>
+          <t>model_20_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999836352837742</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9989536573778797</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999685541625009</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999128271372423</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999622169145234</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G24" t="n">
-        <v>1.527574426876293e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.000976714908616477</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I24" t="n">
-        <v>4.940968444838279e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>3.522107268618316e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>4.231537856728297e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000329535775539511</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M24" t="n">
-        <v>0.003908419663849179</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000030211783801</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O24" t="n">
-        <v>0.004074809180483303</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P24" t="n">
-        <v>96.17848865892205</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q24" t="n">
-        <v>141.2768941790455</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_1</t>
+          <t>model_20_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999814204054105</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C25" t="n">
-        <v>0.998943917794925</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999646762983387</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999015525987311</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999574629417274</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G25" t="n">
-        <v>1.73432359993417e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009858063817864298</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I25" t="n">
-        <v>5.550282935482237e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>3.977640479115778e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>4.763961707299008e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003465203264345559</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M25" t="n">
-        <v>0.004164521100840011</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000034300790011</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004341813385849894</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P25" t="n">
-        <v>95.92461596706143</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q25" t="n">
-        <v>141.0230214871848</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_20_6_0</t>
+          <t>model_20_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999786761635786</v>
+        <v>0.9999805300082542</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9989330846470392</v>
+        <v>0.9991182316315311</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999597908163559</v>
+        <v>0.9999682276788437</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998880581313014</v>
+        <v>0.9999208129411598</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999516017079019</v>
+        <v>0.999957880528215</v>
       </c>
       <c r="G26" t="n">
-        <v>1.990486529115283e-05</v>
+        <v>1.817438266093276e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009959186498174734</v>
+        <v>0.0008230920668076507</v>
       </c>
       <c r="I26" t="n">
-        <v>6.317920697251008e-05</v>
+        <v>1.357546561519212e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>4.522867059003356e-05</v>
+        <v>4.771957356259692e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>5.420393878127183e-05</v>
+        <v>3.064751958889452e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0003651152382690252</v>
+        <v>0.0002731515751168351</v>
       </c>
       <c r="M26" t="n">
-        <v>0.004461486892410739</v>
+        <v>0.004263142345844525</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000039367082624</v>
+        <v>1.000035944600146</v>
       </c>
       <c r="O26" t="n">
-        <v>0.004651421625971723</v>
+        <v>0.004444633141428372</v>
       </c>
       <c r="P26" t="n">
-        <v>95.64909273824659</v>
+        <v>95.83099500301532</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.74749825837</v>
+        <v>140.9294005231387</v>
       </c>
     </row>
   </sheetData>
